--- a/Companies/Distribution/NTPC Ltd/Pruned_Excel/6_Dec19_Dec20.xlsx
+++ b/Companies/Distribution/NTPC Ltd/Pruned_Excel/6_Dec19_Dec20.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Dec '19</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '20</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '20</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '20</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Dec '20</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '20</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '20</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '20</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '19</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>23,496.35</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>27,246.88</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23,453.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24,677.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>24,509.26</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>24,677.14</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>23,453.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>27,246.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>23,496.35</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>27246.88</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>23453.46</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>24676.618</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>23,496.35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>27,246.88</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23,453.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24,677.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>24,509.26</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>24,677.14</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>23,453.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>27,246.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>23,496.35</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>27246.88</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>23453.46</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>24676.618</v>
       </c>
     </row>
     <row r="4"/>
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>593.42</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14,988.41</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11,508.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>13,038.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>12,690.87</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>13,038.53</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11,508.18</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>14,988.41</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>593.42</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>14988.41</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>593.42</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>10563.882</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>12,466.87</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>673.87</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>12,466.87</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>12466.87</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>673.87</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>6570.370000000001</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>1,164.74</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1,427.90</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1,287.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1,346.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>1,286.49</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1,346.46</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1,287.77</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1,427.90</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1,164.74</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1427.9</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>1164.74</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>1302.672</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2,319.81</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2,128.95</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2,529.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2,529.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>2,555.42</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2,529.42</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2,529.74</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2,128.95</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2,319.81</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>2555.42</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>2128.95</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>2412.668</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>2,294.93</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3,512.81</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2,912.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3,108.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>2,490.96</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3,108.75</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2,912.49</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3,512.81</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2,294.93</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>3512.81</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>2294.93</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>2863.988</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>4,656.58</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>5,188.81</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5,215.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4,653.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>4,811.65</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>4,653.98</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5,215.28</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5,188.81</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4,656.58</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>5215.28</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>4653.98</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>4905.26</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>526.27</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1,031.87</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>567.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1,346.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>759.30</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1,346.19</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>567.54</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1,031.87</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>526.27</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>1346.19</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>526.27</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>846.234</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>5,182.85</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>6,220.68</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5,782.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>6,000.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>5,570.95</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>6,000.17</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5,782.82</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>6,220.68</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5,182.85</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>6220.68</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>5182.85</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>5751.494000000001</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>1,760.81</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1,836.91</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2,082.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,772.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>2,009.36</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1,772.81</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2,082.52</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1,836.91</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1,760.81</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>2082.52</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>1760.81</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>1892.482</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>3,422.04</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4,383.77</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3,700.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4,227.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>3,561.59</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>4,227.36</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3,700.30</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4,383.77</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3,422.04</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>4383.77</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>3422.04</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>3859.012</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>1,598.16</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1,852.32</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-560.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>922.39</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>-560.43</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1,852.32</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1,598.16</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>1852.32</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>-560.4299999999999</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>762.494</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>5,020.20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>6,236.09</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3,700.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3,666.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>4,483.98</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>3,666.93</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3,700.33</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6,236.09</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5,020.20</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>6236.09</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>3666.93</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>4621.505999999999</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>2,025.06</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4,983.65</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1,230.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>509.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>1,168.64</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>509.01</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1,230.17</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4,983.65</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2,025.06</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>4983.65</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>509.01</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>1983.306</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>2,995.14</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1,252.44</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2,470.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3,157.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>3,315.34</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>3,157.92</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2,470.16</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1,252.44</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2,995.14</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>3315.34</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>1252.44</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>2638.2</v>
       </c>
     </row>
     <row r="20">
@@ -1173,32 +1006,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>346.88</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>346.88</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>346.88</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>346.88</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>2,995.14</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1,252.44</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2,470.16</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3,504.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>3,315.34</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>3,504.80</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2,470.16</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1,252.44</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2,995.14</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>3504.8</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>1252.44</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>2707.576</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>9,894.56</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>9,894.56</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9,894.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>9,894.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>9,696.67</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>9,894.56</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>9,894.56</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>9,894.56</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>9,894.56</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>9894.559999999999</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>9696.67</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>9854.982</v>
       </c>
     </row>
     <row r="23"/>
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>3.35</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>2.738</v>
       </c>
     </row>
     <row r="26">
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>2.42</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>2.482</v>
       </c>
     </row>
     <row r="27"/>
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>3.35</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>2.738</v>
       </c>
     </row>
     <row r="30">
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>2.42</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>2.482</v>
       </c>
     </row>
     <row r="31"/>
